--- a/dev/Jogadores.xlsx
+++ b/dev/Jogadores.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\LMS\dev\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$D$1:$D$99</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1147,7 +1142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1572,7 +1567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1580,23 +1575,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="5" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>222</v>
       </c>
@@ -1609,34 +1604,34 @@
       <c r="D1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1">
+      <c r="H2" s="1">
         <v>66</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1649,17 +1644,17 @@
       <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3" s="1">
         <v>74</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1672,17 +1667,17 @@
       <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4" s="1">
         <v>69</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1695,17 +1690,17 @@
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5" s="1">
         <v>69</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,17 +1713,17 @@
       <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6" s="1">
         <v>76</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1741,17 +1736,17 @@
       <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7" s="1">
         <v>67</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
@@ -1764,17 +1759,17 @@
       <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="1">
+      <c r="H8" s="1">
         <v>72</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>189</v>
       </c>
@@ -1787,17 +1782,17 @@
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1">
+      <c r="H9" s="1">
         <v>71</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>192</v>
       </c>
@@ -1810,17 +1805,17 @@
       <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="1">
+      <c r="H10" s="1">
         <v>78</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>195</v>
       </c>
@@ -1833,17 +1828,17 @@
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1">
+      <c r="H11" s="1">
         <v>78</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>198</v>
       </c>
@@ -1856,17 +1851,17 @@
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="1">
+      <c r="H12" s="1">
         <v>69</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -1879,17 +1874,17 @@
       <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13" s="1">
         <v>74</v>
       </c>
-      <c r="F13" s="1">
+      <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
@@ -1902,17 +1897,17 @@
       <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14" s="1">
         <v>68</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -1925,17 +1920,17 @@
       <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="1">
+      <c r="H15" s="1">
         <v>67</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>145</v>
       </c>
@@ -1948,17 +1943,17 @@
       <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="1">
+      <c r="H16" s="1">
         <v>66</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,17 +1966,17 @@
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="1">
+      <c r="H17" s="1">
         <v>63</v>
       </c>
-      <c r="F17" s="1">
+      <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1994,17 +1989,17 @@
       <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="1">
+      <c r="H18" s="1">
         <v>71</v>
       </c>
-      <c r="F18" s="1">
+      <c r="I18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>127</v>
       </c>
@@ -2017,17 +2012,17 @@
       <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="1">
+      <c r="H19" s="1">
         <v>67</v>
       </c>
-      <c r="F19" s="1">
+      <c r="I19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>94</v>
       </c>
@@ -2040,17 +2035,17 @@
       <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="1">
+      <c r="H20" s="1">
         <v>70</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>130</v>
       </c>
@@ -2063,17 +2058,17 @@
       <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="1">
+      <c r="H21" s="1">
         <v>81</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>133</v>
       </c>
@@ -2086,17 +2081,17 @@
       <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="1">
+      <c r="H22" s="1">
         <v>80</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>136</v>
       </c>
@@ -2109,17 +2104,17 @@
       <c r="D23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="1">
+      <c r="H23" s="1">
         <v>74</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>117</v>
       </c>
@@ -2132,17 +2127,17 @@
       <c r="D24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="1">
+      <c r="H24" s="1">
         <v>82</v>
       </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>294</v>
       </c>
@@ -2155,17 +2150,17 @@
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="1">
+      <c r="H25" s="1">
         <v>72</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2178,17 +2173,17 @@
       <c r="D26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="1">
+      <c r="H26" s="1">
         <v>72</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>300</v>
       </c>
@@ -2201,17 +2196,17 @@
       <c r="D27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="1">
+      <c r="H27" s="1">
         <v>68</v>
       </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>164</v>
       </c>
@@ -2224,17 +2219,17 @@
       <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="1">
+      <c r="H28" s="1">
         <v>64</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>111</v>
       </c>
@@ -2247,17 +2242,17 @@
       <c r="D29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="1">
+      <c r="H29" s="1">
         <v>75</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>283</v>
       </c>
@@ -2270,17 +2265,17 @@
       <c r="D30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="1">
+      <c r="H30" s="1">
         <v>70</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>285</v>
       </c>
@@ -2293,17 +2288,17 @@
       <c r="D31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="1">
+      <c r="H31" s="1">
         <v>65</v>
       </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>189</v>
       </c>
@@ -2316,17 +2311,17 @@
       <c r="D32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="1">
+      <c r="H32" s="1">
         <v>63</v>
       </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>290</v>
       </c>
@@ -2339,17 +2334,17 @@
       <c r="D33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="1">
+      <c r="H33" s="1">
         <v>65</v>
       </c>
-      <c r="F33" s="1">
+      <c r="I33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -2362,17 +2357,17 @@
       <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="1">
+      <c r="H34" s="1">
         <v>81</v>
       </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2385,17 +2380,17 @@
       <c r="D35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="1">
+      <c r="H35" s="1">
         <v>81</v>
       </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2408,17 +2403,17 @@
       <c r="D36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="1">
+      <c r="H36" s="1">
         <v>80</v>
       </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
@@ -2431,17 +2426,17 @@
       <c r="D37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="1">
+      <c r="H37" s="1">
         <v>72</v>
       </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -2454,17 +2449,17 @@
       <c r="D38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="1">
+      <c r="H38" s="1">
         <v>79</v>
       </c>
-      <c r="F38" s="1">
+      <c r="I38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>141</v>
       </c>
@@ -2477,17 +2472,17 @@
       <c r="D39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="1">
+      <c r="H39" s="1">
         <v>84</v>
       </c>
-      <c r="F39" s="1">
+      <c r="I39" s="1">
         <v>0</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2500,17 +2495,17 @@
       <c r="D40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="1">
+      <c r="H40" s="1">
         <v>80</v>
       </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
@@ -2523,17 +2518,17 @@
       <c r="D41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="1">
+      <c r="H41" s="1">
         <v>75</v>
       </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>70</v>
       </c>
@@ -2546,17 +2541,17 @@
       <c r="D42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="1">
+      <c r="H42" s="1">
         <v>74</v>
       </c>
-      <c r="F42" s="1">
+      <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
@@ -2569,17 +2564,17 @@
       <c r="D43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="1">
+      <c r="H43" s="1">
         <v>77</v>
       </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
@@ -2592,17 +2587,17 @@
       <c r="D44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="1">
+      <c r="H44" s="1">
         <v>79</v>
       </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -2615,17 +2610,17 @@
       <c r="D45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="1">
+      <c r="H45" s="1">
         <v>74</v>
       </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -2638,17 +2633,17 @@
       <c r="D46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="1">
+      <c r="H46" s="1">
         <v>68</v>
       </c>
-      <c r="F46" s="1">
+      <c r="I46" s="1">
         <v>0</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -2661,17 +2656,17 @@
       <c r="D47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="1">
+      <c r="H47" s="1">
         <v>68</v>
       </c>
-      <c r="F47" s="1">
+      <c r="I47" s="1">
         <v>0</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -2684,17 +2679,17 @@
       <c r="D48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="1">
+      <c r="H48" s="1">
         <v>79</v>
       </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>117</v>
       </c>
@@ -2707,17 +2702,17 @@
       <c r="D49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="1">
+      <c r="H49" s="1">
         <v>79</v>
       </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -2730,17 +2725,17 @@
       <c r="D50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="1">
+      <c r="H50" s="1">
         <v>82</v>
       </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -2753,17 +2748,17 @@
       <c r="D51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="1">
+      <c r="H51" s="1">
         <v>78</v>
       </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -2776,17 +2771,17 @@
       <c r="D52" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="1">
+      <c r="H52" s="1">
         <v>71</v>
       </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -2799,17 +2794,17 @@
       <c r="D53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="1">
+      <c r="H53" s="1">
         <v>82</v>
       </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
@@ -2822,17 +2817,17 @@
       <c r="D54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="1">
+      <c r="H54" s="1">
         <v>73</v>
       </c>
-      <c r="F54" s="1">
+      <c r="I54" s="1">
         <v>0</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>290</v>
       </c>
@@ -2845,17 +2840,17 @@
       <c r="D55" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="1">
+      <c r="H55" s="1">
         <v>80</v>
       </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
@@ -2868,17 +2863,17 @@
       <c r="D56" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="1">
+      <c r="H56" s="1">
         <v>68</v>
       </c>
-      <c r="F56" s="1">
+      <c r="I56" s="1">
         <v>0</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
@@ -2891,17 +2886,17 @@
       <c r="D57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E57" s="1">
+      <c r="H57" s="1">
         <v>73</v>
       </c>
-      <c r="F57" s="1">
+      <c r="I57" s="1">
         <v>0</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>73</v>
       </c>
@@ -2914,17 +2909,17 @@
       <c r="D58" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="1">
+      <c r="H58" s="1">
         <v>71</v>
       </c>
-      <c r="F58" s="1">
+      <c r="I58" s="1">
         <v>0</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
@@ -2937,17 +2932,17 @@
       <c r="D59" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="1">
+      <c r="H59" s="1">
         <v>75</v>
       </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
@@ -2960,17 +2955,17 @@
       <c r="D60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="1">
+      <c r="H60" s="1">
         <v>69</v>
       </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>84</v>
       </c>
@@ -2983,17 +2978,17 @@
       <c r="D61" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="1">
+      <c r="H61" s="1">
         <v>75</v>
       </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>205</v>
       </c>
@@ -3006,17 +3001,17 @@
       <c r="D62" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E62" s="1">
+      <c r="H62" s="1">
         <v>75</v>
       </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>314</v>
       </c>
@@ -3029,17 +3024,17 @@
       <c r="D63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="1">
+      <c r="H63" s="1">
         <v>68</v>
       </c>
-      <c r="F63" s="1">
+      <c r="I63" s="1">
         <v>0</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -3052,17 +3047,17 @@
       <c r="D64" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="1">
+      <c r="H64" s="1">
         <v>78</v>
       </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
@@ -3075,17 +3070,17 @@
       <c r="D65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E65" s="1">
+      <c r="H65" s="1">
         <v>83</v>
       </c>
-      <c r="F65" s="1">
+      <c r="I65" s="1">
         <v>0</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,17 +3093,17 @@
       <c r="D66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="1">
+      <c r="H66" s="1">
         <v>79</v>
       </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -3121,17 +3116,17 @@
       <c r="D67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E67" s="1">
+      <c r="H67" s="1">
         <v>82</v>
       </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>145</v>
       </c>
@@ -3144,17 +3139,17 @@
       <c r="D68" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="1">
+      <c r="H68" s="1">
         <v>81</v>
       </c>
-      <c r="F68" s="1">
-        <v>1</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>215</v>
       </c>
@@ -3167,17 +3162,17 @@
       <c r="D69" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="1">
+      <c r="H69" s="1">
         <v>80</v>
       </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>97</v>
       </c>
@@ -3190,17 +3185,17 @@
       <c r="D70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="1">
+      <c r="H70" s="1">
         <v>79</v>
       </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>164</v>
       </c>
@@ -3213,17 +3208,17 @@
       <c r="D71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E71" s="1">
+      <c r="H71" s="1">
         <v>76</v>
       </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -3236,17 +3231,17 @@
       <c r="D72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="1">
+      <c r="H72" s="1">
         <v>81</v>
       </c>
-      <c r="F72" s="1">
-        <v>1</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>168</v>
       </c>
@@ -3259,17 +3254,17 @@
       <c r="D73" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E73" s="1">
+      <c r="H73" s="1">
         <v>79</v>
       </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
@@ -3282,18 +3277,18 @@
       <c r="D74" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E74" s="1">
+      <c r="H74" s="1">
         <v>79</v>
       </c>
-      <c r="F74" s="1">
-        <v>1</v>
-      </c>
-      <c r="G74" s="1" t="s">
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L74" s="1"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>173</v>
       </c>
@@ -3306,18 +3301,18 @@
       <c r="D75" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="1">
+      <c r="H75" s="1">
         <v>74</v>
       </c>
-      <c r="F75" s="1">
+      <c r="I75" s="1">
         <v>0</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L75" s="1"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>176</v>
       </c>
@@ -3330,18 +3325,18 @@
       <c r="D76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="1">
+      <c r="H76" s="1">
         <v>70</v>
       </c>
-      <c r="F76" s="1">
+      <c r="I76" s="1">
         <v>0</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>130</v>
       </c>
@@ -3354,18 +3349,18 @@
       <c r="D77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="1">
+      <c r="H77" s="1">
         <v>72</v>
       </c>
-      <c r="F77" s="1">
+      <c r="I77" s="1">
         <v>0</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="J77" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>181</v>
       </c>
@@ -3378,19 +3373,19 @@
       <c r="D78" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="1">
+      <c r="H78" s="1">
         <v>73</v>
       </c>
-      <c r="F78" s="1">
+      <c r="I78" s="1">
         <v>0</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I78" s="2"/>
-      <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L78" s="2"/>
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>269</v>
       </c>
@@ -3403,19 +3398,19 @@
       <c r="D79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E79" s="1">
+      <c r="H79" s="1">
         <v>79</v>
       </c>
-      <c r="F79" s="1">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I79" s="2"/>
-      <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L79" s="2"/>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>135</v>
       </c>
@@ -3428,19 +3423,19 @@
       <c r="D80" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="1">
+      <c r="H80" s="1">
         <v>79</v>
       </c>
-      <c r="F80" s="1">
-        <v>1</v>
-      </c>
-      <c r="G80" s="1" t="s">
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I80" s="2"/>
-      <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L80" s="2"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>164</v>
       </c>
@@ -3453,18 +3448,18 @@
       <c r="D81" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E81" s="1">
+      <c r="H81" s="1">
         <v>78</v>
       </c>
-      <c r="F81" s="1">
-        <v>1</v>
-      </c>
-      <c r="G81" s="1" t="s">
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>275</v>
       </c>
@@ -3477,19 +3472,19 @@
       <c r="D82" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="1">
+      <c r="H82" s="1">
         <v>83</v>
       </c>
-      <c r="F82" s="1">
-        <v>1</v>
-      </c>
-      <c r="G82" s="1" t="s">
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I82" s="2"/>
-      <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L82" s="2"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>278</v>
       </c>
@@ -3502,19 +3497,19 @@
       <c r="D83" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E83" s="1">
+      <c r="H83" s="1">
         <v>81</v>
       </c>
-      <c r="F83" s="1">
+      <c r="I83" s="1">
         <v>0</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I83" s="2"/>
-      <c r="L83" s="1"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L83" s="2"/>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -3527,18 +3522,18 @@
       <c r="D84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E84" s="1">
+      <c r="H84" s="1">
         <v>81</v>
       </c>
-      <c r="F84" s="1">
+      <c r="I84" s="1">
         <v>0</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -3551,18 +3546,18 @@
       <c r="D85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E85" s="1">
+      <c r="H85" s="1">
         <v>82</v>
       </c>
-      <c r="F85" s="1">
-        <v>1</v>
-      </c>
-      <c r="G85" s="1" t="s">
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -3575,18 +3570,18 @@
       <c r="D86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="1">
+      <c r="H86" s="1">
         <v>82</v>
       </c>
-      <c r="F86" s="1">
-        <v>1</v>
-      </c>
-      <c r="G86" s="1" t="s">
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L86" s="1"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -3599,18 +3594,18 @@
       <c r="D87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E87" s="1">
+      <c r="H87" s="1">
         <v>81</v>
       </c>
-      <c r="F87" s="1">
-        <v>1</v>
-      </c>
-      <c r="G87" s="1" t="s">
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>330</v>
       </c>
@@ -3623,17 +3618,17 @@
       <c r="D88" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E88" s="1">
+      <c r="H88" s="1">
         <v>84</v>
       </c>
-      <c r="F88" s="1">
+      <c r="I88" s="1">
         <v>0</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="J88" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
@@ -3646,17 +3641,17 @@
       <c r="D89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E89" s="1">
+      <c r="H89" s="1">
         <v>75</v>
       </c>
-      <c r="F89" s="1">
-        <v>1</v>
-      </c>
-      <c r="G89" s="1" t="s">
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>105</v>
       </c>
@@ -3669,19 +3664,19 @@
       <c r="D90" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E90" s="1">
+      <c r="H90" s="1">
         <v>68</v>
       </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1" t="s">
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
@@ -3694,19 +3689,19 @@
       <c r="D91" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E91" s="1">
+      <c r="H91" s="1">
         <v>72</v>
       </c>
-      <c r="F91" s="1">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1" t="s">
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>111</v>
       </c>
@@ -3719,19 +3714,19 @@
       <c r="D92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E92" s="1">
+      <c r="H92" s="1">
         <v>70</v>
       </c>
-      <c r="F92" s="1">
-        <v>1</v>
-      </c>
-      <c r="G92" s="1" t="s">
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>114</v>
       </c>
@@ -3744,18 +3739,18 @@
       <c r="D93" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E93" s="1">
+      <c r="H93" s="1">
         <v>71</v>
       </c>
-      <c r="F93" s="1">
-        <v>1</v>
-      </c>
-      <c r="G93" s="1" t="s">
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J93" s="2"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>318</v>
       </c>
@@ -3768,19 +3763,19 @@
       <c r="D94" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E94" s="1">
+      <c r="H94" s="1">
         <v>78</v>
       </c>
-      <c r="F94" s="1">
+      <c r="I94" s="1">
         <v>0</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="J94" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>164</v>
       </c>
@@ -3793,19 +3788,19 @@
       <c r="D95" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E95" s="1">
+      <c r="H95" s="1">
         <v>81</v>
       </c>
-      <c r="F95" s="1">
+      <c r="I95" s="1">
         <v>0</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -3818,17 +3813,17 @@
       <c r="D96" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E96" s="1">
+      <c r="H96" s="1">
         <v>67</v>
       </c>
-      <c r="F96" s="1">
+      <c r="I96" s="1">
         <v>0</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="J96" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>64</v>
       </c>
@@ -3841,17 +3836,17 @@
       <c r="D97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E97" s="1">
+      <c r="H97" s="1">
         <v>69</v>
       </c>
-      <c r="F97" s="1">
+      <c r="I97" s="1">
         <v>0</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="J97" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>341</v>
       </c>
@@ -3864,17 +3859,17 @@
       <c r="D98" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E98" s="1">
+      <c r="H98" s="1">
         <v>75</v>
       </c>
-      <c r="F98" s="1">
+      <c r="I98" s="1">
         <v>0</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="J98" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>24</v>
       </c>
@@ -3887,285 +3882,285 @@
       <c r="D99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E99" s="1">
+      <c r="H99" s="1">
         <v>73</v>
       </c>
-      <c r="F99" s="1">
+      <c r="I99" s="1">
         <v>0</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="J99" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" s="1">
+        <v>86</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B103" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="1">
+        <v>87</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H104" s="1">
+        <v>84</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" s="1">
+        <v>78</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" s="1">
+        <v>81</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="1">
+        <v>85</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E104" s="1">
-        <v>86</v>
-      </c>
-      <c r="G104" s="1" t="s">
+      <c r="H108" s="1">
+        <v>73</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105" s="1">
-        <v>87</v>
-      </c>
-      <c r="G105" s="1" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109" s="1">
+        <v>80</v>
+      </c>
+      <c r="J109" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D106" s="1" t="s">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E106" s="1">
-        <v>84</v>
-      </c>
-      <c r="G106" s="1" t="s">
+      <c r="H110" s="1">
+        <v>82</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D107" s="1" t="s">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H111" s="1">
+        <v>79</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E107" s="1">
-        <v>78</v>
-      </c>
-      <c r="G107" s="1" t="s">
+      <c r="H112" s="1">
+        <v>63</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E108" s="1">
-        <v>81</v>
-      </c>
-      <c r="G108" s="1" t="s">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H113" s="1">
+        <v>71</v>
+      </c>
+      <c r="J113" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C109" s="1" t="s">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="1">
-        <v>85</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E110" s="1">
-        <v>73</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E111" s="1">
-        <v>80</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="1">
-        <v>82</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E113" s="1">
-        <v>79</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E114" s="1">
-        <v>63</v>
-      </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" s="1">
+        <v>79</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E115" s="1">
-        <v>71</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="1">
-        <v>79</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D100"/>
-  <sortState ref="A2:G113">
-    <sortCondition ref="G1"/>
+  <autoFilter ref="D1:D99"/>
+  <sortState ref="A2:J113">
+    <sortCondition ref="J1"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6147,7 +6142,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dev/Jogadores.xlsx
+++ b/dev/Jogadores.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Treinadores" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$D$1:$D$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$D$1:$D$104</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="392">
   <si>
     <t>João Luis</t>
   </si>
@@ -116,9 +116,6 @@
     <t>de Carli</t>
   </si>
   <si>
-    <t>Paulo Vinícios</t>
-  </si>
-  <si>
     <t>Balto</t>
   </si>
   <si>
@@ -1137,6 +1134,72 @@
   </si>
   <si>
     <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>Lactea</t>
+  </si>
+  <si>
+    <t>Gi-Hyeon</t>
+  </si>
+  <si>
+    <t>Sparked</t>
+  </si>
+  <si>
+    <t>Basi</t>
+  </si>
+  <si>
+    <t>Lázaro</t>
+  </si>
+  <si>
+    <t>laz0</t>
+  </si>
+  <si>
+    <t>Fontanez</t>
+  </si>
+  <si>
+    <t>Álvaro</t>
+  </si>
+  <si>
+    <t>LokiFc</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>Yeoj</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Cute</t>
+  </si>
+  <si>
+    <t>Akemi</t>
+  </si>
+  <si>
+    <t>CNB TRINITY</t>
+  </si>
+  <si>
+    <t>DisfiguredMe</t>
+  </si>
+  <si>
+    <t>Spínola</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Paulo V.</t>
+  </si>
+  <si>
+    <t>Noronha</t>
+  </si>
+  <si>
+    <t>Yoda</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1170,6 +1233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +1335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1293,6 +1362,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1567,7 +1639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1575,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD101"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,1929 +1659,1932 @@
     <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>219</v>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
+        <v>66</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="1">
+      <c r="E5" s="1">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1">
+        <v>76</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1">
+        <v>67</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1">
+        <v>71</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1">
+        <v>78</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1">
+        <v>78</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>69</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1">
+        <v>74</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1">
+        <v>68</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1">
+        <v>67</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1">
         <v>66</v>
       </c>
-      <c r="I2" s="1">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1">
+        <v>63</v>
+      </c>
+      <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1">
+        <v>71</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1">
+        <v>67</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1">
+        <v>70</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1">
+        <v>81</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1">
+      <c r="E22" s="1">
+        <v>80</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1">
         <v>74</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1">
+        <v>82</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1">
+        <v>72</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B26" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1">
+        <v>72</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="1">
+        <v>68</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1">
+        <v>64</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1">
+        <v>75</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="1">
+        <v>70</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="1">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1">
+      <c r="E32" s="1">
+        <v>63</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1">
+        <v>65</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1">
+        <v>81</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1">
+        <v>81</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1">
+        <v>80</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="1">
+        <v>72</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="1">
+        <v>79</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1">
+        <v>84</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="1">
+        <v>80</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="1">
+        <v>75</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1">
-        <v>69</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B42" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="1">
+        <v>74</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="1">
+        <v>77</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1">
-        <v>76</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B44" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="1">
-        <v>67</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1">
-        <v>72</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E44" s="1">
+        <v>79</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="1">
-        <v>71</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="1">
-        <v>78</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="1">
-        <v>78</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="1">
-        <v>69</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="E45" s="1">
         <v>74</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="1">
-        <v>68</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="1">
-        <v>67</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="1">
-        <v>66</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="1">
-        <v>63</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="1">
-        <v>71</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="1">
-        <v>67</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="1">
-        <v>70</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="1">
-        <v>81</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="1">
-        <v>80</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="1">
-        <v>74</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="1">
-        <v>82</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="1">
-        <v>72</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="1">
-        <v>72</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="1">
-        <v>68</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="1">
-        <v>64</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="1">
-        <v>75</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="1">
-        <v>70</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="1">
-        <v>65</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="1">
-        <v>63</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="1">
-        <v>65</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="1">
-        <v>81</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="1">
-        <v>81</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="1">
-        <v>80</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="1">
-        <v>72</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" s="1">
-        <v>79</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="1">
-        <v>84</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="1">
-        <v>80</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="1">
-        <v>75</v>
-      </c>
-      <c r="I41" s="1">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="1">
-        <v>74</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="1">
-        <v>77</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="1">
-        <v>79</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="1">
-        <v>74</v>
-      </c>
-      <c r="I45" s="1">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="1">
+        <v>68</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="1">
+      <c r="E47" s="1">
         <v>68</v>
       </c>
-      <c r="I46" s="1">
+      <c r="G47" s="1">
         <v>0</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="H47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="1">
-        <v>68</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" s="1">
+        <v>33</v>
+      </c>
+      <c r="E48" s="1">
         <v>79</v>
       </c>
-      <c r="I48" s="1">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="1">
+        <v>36</v>
+      </c>
+      <c r="E49" s="1">
         <v>79</v>
       </c>
-      <c r="I49" s="1">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="1">
+        <v>34</v>
+      </c>
+      <c r="E50" s="1">
         <v>82</v>
       </c>
-      <c r="I50" s="1">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="1">
+        <v>78</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" s="1">
-        <v>78</v>
-      </c>
-      <c r="I51" s="1">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="1">
+        <v>35</v>
+      </c>
+      <c r="E52" s="1">
         <v>71</v>
       </c>
-      <c r="I52" s="1">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" s="1">
+        <v>33</v>
+      </c>
+      <c r="E53" s="1">
         <v>82</v>
       </c>
-      <c r="I53" s="1">
-        <v>1</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" s="1">
+        <v>33</v>
+      </c>
+      <c r="E54" s="1">
         <v>73</v>
       </c>
-      <c r="I54" s="1">
+      <c r="G54" s="1">
         <v>0</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" s="1">
+        <v>35</v>
+      </c>
+      <c r="E55" s="1">
         <v>80</v>
       </c>
-      <c r="I55" s="1">
-        <v>1</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="1">
         <v>68</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="1">
+        <v>73</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H56" s="1">
+      <c r="E58" s="1">
+        <v>71</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I56" s="1">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="1">
+        <v>75</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="1">
+        <v>69</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="1">
+        <v>75</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="1">
+        <v>75</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="1">
+        <v>68</v>
+      </c>
+      <c r="G63" s="1">
         <v>0</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="H63" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="1">
+        <v>78</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="1">
+        <v>83</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H57" s="1">
-        <v>73</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" s="1">
-        <v>71</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="1">
         <v>79</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="1">
-        <v>75</v>
-      </c>
-      <c r="I59" s="1">
-        <v>1</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H60" s="1">
-        <v>69</v>
-      </c>
-      <c r="I60" s="1">
-        <v>1</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" s="1">
-        <v>75</v>
-      </c>
-      <c r="I61" s="1">
-        <v>1</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="1">
-        <v>75</v>
-      </c>
-      <c r="I62" s="1">
-        <v>1</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H63" s="1">
-        <v>68</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H64" s="1">
-        <v>78</v>
-      </c>
-      <c r="I64" s="1">
-        <v>1</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="1">
-        <v>83</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H66" s="1">
-        <v>79</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="1">
+        <v>82</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="1">
+        <v>81</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="1">
+        <v>80</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="1">
+        <v>79</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H67" s="1">
-        <v>82</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H68" s="1">
-        <v>81</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H69" s="1">
-        <v>80</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="E71" s="1">
+        <v>76</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" s="1">
-        <v>79</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H71" s="1">
-        <v>76</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="1">
+        <v>81</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="1">
+        <v>79</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="1">
+        <v>79</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="1">
+        <v>74</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H72" s="1">
+      <c r="E76" s="1">
+        <v>70</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="1">
+        <v>72</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="1">
+        <v>73</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="1">
+        <v>79</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J79" s="2"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="1">
+        <v>79</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="1">
+        <v>78</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="1">
+        <v>83</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="1">
         <v>81</v>
       </c>
-      <c r="I72" s="1">
-        <v>1</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H73" s="1">
-        <v>79</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" s="1">
-        <v>79</v>
-      </c>
-      <c r="I74" s="1">
-        <v>1</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" s="1">
-        <v>74</v>
-      </c>
-      <c r="I75" s="1">
+      <c r="G83" s="1">
         <v>0</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H76" s="1">
-        <v>70</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H77" s="1">
-        <v>72</v>
-      </c>
-      <c r="I77" s="1">
-        <v>0</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H78" s="1">
-        <v>73</v>
-      </c>
-      <c r="I78" s="1">
-        <v>0</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L78" s="2"/>
-      <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H79" s="1">
-        <v>79</v>
-      </c>
-      <c r="I79" s="1">
-        <v>1</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L79" s="2"/>
-      <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H80" s="1">
-        <v>79</v>
-      </c>
-      <c r="I80" s="1">
-        <v>1</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L80" s="2"/>
-      <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H81" s="1">
-        <v>78</v>
-      </c>
-      <c r="I81" s="1">
-        <v>1</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" s="1">
-        <v>83</v>
-      </c>
-      <c r="I82" s="1">
-        <v>1</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L82" s="2"/>
-      <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" s="1">
-        <v>81</v>
-      </c>
-      <c r="I83" s="1">
-        <v>0</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L83" s="2"/>
-      <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H83" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -3520,20 +3595,20 @@
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H84" s="1">
+        <v>33</v>
+      </c>
+      <c r="E84" s="1">
         <v>81</v>
       </c>
-      <c r="I84" s="1">
+      <c r="G84" s="1">
         <v>0</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -3544,20 +3619,20 @@
         <v>5</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="1">
+        <v>34</v>
+      </c>
+      <c r="E85" s="1">
         <v>82</v>
       </c>
-      <c r="I85" s="1">
-        <v>1</v>
-      </c>
-      <c r="J85" s="1" t="s">
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -3568,20 +3643,20 @@
         <v>8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H86" s="1">
+        <v>33</v>
+      </c>
+      <c r="E86" s="1">
         <v>82</v>
       </c>
-      <c r="I86" s="1">
-        <v>1</v>
-      </c>
-      <c r="J86" s="1" t="s">
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -3592,575 +3667,707 @@
         <v>14</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" s="1">
+        <v>81</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H87" s="1">
-        <v>81</v>
-      </c>
-      <c r="I87" s="1">
-        <v>1</v>
-      </c>
-      <c r="J87" s="1" t="s">
+      <c r="E88" s="1">
+        <v>84</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D88" s="1" t="s">
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H88" s="1">
-        <v>84</v>
-      </c>
-      <c r="I88" s="1">
-        <v>0</v>
-      </c>
-      <c r="J88" s="1" t="s">
+      <c r="E89" s="1">
+        <v>85</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H89" s="1">
-        <v>75</v>
-      </c>
-      <c r="I89" s="1">
-        <v>1</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>106</v>
+        <v>373</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>107</v>
+        <v>374</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H90" s="1">
+      <c r="E90" s="1">
         <v>68</v>
       </c>
-      <c r="I90" s="1">
-        <v>1</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>108</v>
+        <v>375</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>109</v>
+        <v>377</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H91" s="1">
-        <v>72</v>
-      </c>
-      <c r="I91" s="1">
-        <v>1</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E91" s="1">
+        <v>69</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>111</v>
+        <v>378</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>112</v>
+        <v>379</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>113</v>
+        <v>380</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H92" s="1">
-        <v>70</v>
-      </c>
-      <c r="I92" s="1">
-        <v>1</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E92" s="1">
+        <v>67</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>115</v>
+        <v>381</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H93" s="1">
-        <v>71</v>
-      </c>
-      <c r="I93" s="1">
-        <v>1</v>
-      </c>
-      <c r="J93" s="1" t="s">
+      <c r="E93" s="1">
+        <v>70</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="1">
+        <v>73</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H94" s="1">
-        <v>78</v>
-      </c>
-      <c r="I94" s="1">
-        <v>0</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="B95" s="1" t="s">
-        <v>321</v>
+        <v>105</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H95" s="1">
-        <v>81</v>
-      </c>
-      <c r="I95" s="1">
-        <v>0</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E95" s="1">
+        <v>68</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>323</v>
+        <v>109</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H96" s="1">
+      <c r="E96" s="1">
+        <v>72</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="1">
+        <v>70</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="1">
+        <v>71</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="1">
+        <v>78</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="1">
+        <v>81</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="1">
         <v>67</v>
       </c>
-      <c r="I96" s="1">
+      <c r="G101" s="1">
         <v>0</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="H101" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H97" s="1">
+      <c r="D102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="1">
         <v>69</v>
       </c>
-      <c r="I97" s="1">
+      <c r="G102" s="1">
         <v>0</v>
       </c>
-      <c r="J97" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="H102" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" s="1">
+        <v>75</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H98" s="1">
-        <v>75</v>
-      </c>
-      <c r="I98" s="1">
+      <c r="C104" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" s="1">
+        <v>73</v>
+      </c>
+      <c r="G104" s="1">
         <v>0</v>
       </c>
-      <c r="J98" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="H104" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="1">
+        <v>86</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H99" s="1">
-        <v>73</v>
-      </c>
-      <c r="I99" s="1">
-        <v>0</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H102" s="1">
-        <v>86</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" s="1">
+        <v>87</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H103" s="1">
-        <v>87</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H104" s="1">
-        <v>84</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H105" s="1">
-        <v>78</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H106" s="1">
-        <v>81</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" s="1">
-        <v>85</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H108" s="1">
-        <v>73</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H109" s="1">
-        <v>80</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H110" s="1">
-        <v>82</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H111" s="1">
-        <v>79</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H112" s="1">
-        <v>63</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H113" s="1">
-        <v>71</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H114" s="1">
+      <c r="E114" s="1">
+        <v>84</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="1">
+        <v>78</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" s="1">
+        <v>81</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="1">
+        <v>85</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="1">
+        <v>73</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="1">
+        <v>80</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="1">
+        <v>82</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E121" s="1">
         <v>79</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>370</v>
+      <c r="H121" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="1">
+        <v>63</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" s="1">
+        <v>71</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="1">
+        <v>79</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="1">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D99"/>
-  <sortState ref="A2:J113">
-    <sortCondition ref="J1"/>
+  <autoFilter ref="D1:D104"/>
+  <sortState ref="A2:K113">
+    <sortCondition ref="H1"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4182,169 +4389,169 @@
   <sheetData>
     <row r="1" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
@@ -4352,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9">
         <v>81</v>
@@ -4367,7 +4574,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="9">
         <v>66</v>
@@ -4379,10 +4586,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="9">
         <v>81</v>
@@ -4391,13 +4598,13 @@
         <v>1</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R2" s="9">
         <v>75</v>
@@ -4406,13 +4613,13 @@
         <v>1</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W2" s="9">
         <v>68</v>
@@ -4421,13 +4628,13 @@
         <v>0</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB2" s="9">
         <v>78</v>
@@ -4436,13 +4643,13 @@
         <v>1</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG2" s="9">
         <v>79</v>
@@ -4451,13 +4658,13 @@
         <v>1</v>
       </c>
       <c r="AI2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL2" s="9">
         <v>75</v>
@@ -4466,13 +4673,13 @@
         <v>1</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AQ2" s="9">
         <v>70</v>
@@ -4481,13 +4688,13 @@
         <v>1</v>
       </c>
       <c r="AS2" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AV2" s="9">
         <v>79</v>
@@ -4496,13 +4703,13 @@
         <v>1</v>
       </c>
       <c r="AX2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AZ2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BA2" s="9">
         <v>72</v>
@@ -4511,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -4519,7 +4726,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6">
         <v>82</v>
@@ -4534,7 +4741,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="6">
         <v>75</v>
@@ -4546,10 +4753,10 @@
         <v>17</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="6">
         <v>81</v>
@@ -4558,13 +4765,13 @@
         <v>1</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="6">
         <v>74</v>
@@ -4573,13 +4780,13 @@
         <v>0</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W3" s="6">
         <v>73</v>
@@ -4588,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="6">
         <v>83</v>
@@ -4603,13 +4810,13 @@
         <v>0</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG3" s="6">
         <v>76</v>
@@ -4618,13 +4825,13 @@
         <v>1</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL3" s="6">
         <v>68</v>
@@ -4633,13 +4840,13 @@
         <v>1</v>
       </c>
       <c r="AN3" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AQ3" s="6">
         <v>81</v>
@@ -4648,13 +4855,13 @@
         <v>1</v>
       </c>
       <c r="AS3" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT3" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AU3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AV3" s="6">
         <v>82</v>
@@ -4663,13 +4870,13 @@
         <v>1</v>
       </c>
       <c r="AX3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY3" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AZ3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BA3" s="6">
         <v>71</v>
@@ -4678,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="BC3" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -4686,7 +4893,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6">
         <v>82</v>
@@ -4701,7 +4908,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="6">
         <v>69</v>
@@ -4713,10 +4920,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="6">
         <v>80</v>
@@ -4725,13 +4932,13 @@
         <v>1</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" s="6">
         <v>77</v>
@@ -4740,13 +4947,13 @@
         <v>1</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W4" s="6">
         <v>71</v>
@@ -4755,13 +4962,13 @@
         <v>0</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB4" s="6">
         <v>79</v>
@@ -4770,13 +4977,13 @@
         <v>1</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG4" s="6">
         <v>81</v>
@@ -4785,13 +4992,13 @@
         <v>1</v>
       </c>
       <c r="AI4" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL4" s="6">
         <v>72</v>
@@ -4800,13 +5007,13 @@
         <v>1</v>
       </c>
       <c r="AN4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AO4" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AQ4" s="6">
         <v>80</v>
@@ -4815,13 +5022,13 @@
         <v>1</v>
       </c>
       <c r="AS4" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AU4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV4" s="6">
         <v>78</v>
@@ -4830,13 +5037,13 @@
         <v>1</v>
       </c>
       <c r="AX4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY4" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AZ4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BA4" s="6">
         <v>78</v>
@@ -4845,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="BC4" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
@@ -4853,7 +5060,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6">
         <v>81</v>
@@ -4868,7 +5075,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="6">
         <v>69</v>
@@ -4880,10 +5087,10 @@
         <v>17</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5" s="6">
         <v>72</v>
@@ -4892,13 +5099,13 @@
         <v>1</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R5" s="6">
         <v>79</v>
@@ -4907,13 +5114,13 @@
         <v>1</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W5" s="6">
         <v>75</v>
@@ -4922,13 +5129,13 @@
         <v>1</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB5" s="6">
         <v>82</v>
@@ -4937,13 +5144,13 @@
         <v>1</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG5" s="6">
         <v>79</v>
@@ -4952,13 +5159,13 @@
         <v>1</v>
       </c>
       <c r="AI5" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL5" s="6">
         <v>70</v>
@@ -4967,13 +5174,13 @@
         <v>1</v>
       </c>
       <c r="AN5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AO5" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AQ5" s="6">
         <v>74</v>
@@ -4982,13 +5189,13 @@
         <v>1</v>
       </c>
       <c r="AS5" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT5" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AV5" s="6">
         <v>71</v>
@@ -4997,13 +5204,13 @@
         <v>1</v>
       </c>
       <c r="AX5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY5" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AZ5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BA5" s="6">
         <v>78</v>
@@ -5012,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="BC5" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
@@ -5027,7 +5234,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="6">
         <v>76</v>
@@ -5039,10 +5246,10 @@
         <v>17</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="6">
         <v>79</v>
@@ -5051,13 +5258,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R6" s="6">
         <v>74</v>
@@ -5066,13 +5273,13 @@
         <v>1</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W6" s="6">
         <v>69</v>
@@ -5081,13 +5288,13 @@
         <v>1</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="6">
         <v>81</v>
@@ -5096,13 +5303,13 @@
         <v>1</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG6" s="6">
         <v>79</v>
@@ -5111,13 +5318,13 @@
         <v>1</v>
       </c>
       <c r="AI6" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL6" s="6">
         <v>71</v>
@@ -5126,13 +5333,13 @@
         <v>1</v>
       </c>
       <c r="AN6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AO6" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AQ6" s="6">
         <v>82</v>
@@ -5141,13 +5348,13 @@
         <v>1</v>
       </c>
       <c r="AS6" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT6" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AV6" s="6">
         <v>82</v>
@@ -5156,13 +5363,13 @@
         <v>1</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY6" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AZ6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BA6" s="6">
         <v>69</v>
@@ -5171,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="BC6" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5181,10 +5388,10 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="6">
         <v>67</v>
@@ -5196,10 +5403,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="6">
         <v>84</v>
@@ -5208,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R7" s="6">
         <v>68</v>
@@ -5223,13 +5430,13 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W7" s="6">
         <v>75</v>
@@ -5238,13 +5445,13 @@
         <v>1</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB7" s="6">
         <v>80</v>
@@ -5253,13 +5460,13 @@
         <v>1</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG7" s="6">
         <v>74</v>
@@ -5268,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="AI7" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL7" s="6">
         <v>68</v>
@@ -5283,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AO7" s="11"/>
       <c r="AP7" s="5"/>
@@ -5296,10 +5503,10 @@
       <c r="AW7" s="5"/>
       <c r="AX7" s="5"/>
       <c r="AY7" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AZ7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BA7" s="6">
         <v>74</v>
@@ -5308,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5329,10 +5536,10 @@
       <c r="I8" s="5"/>
       <c r="J8" s="12"/>
       <c r="K8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="6">
         <v>80</v>
@@ -5341,13 +5548,13 @@
         <v>1</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R8" s="6">
         <v>68</v>
@@ -5356,13 +5563,13 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W8" s="6">
         <v>75</v>
@@ -5371,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z8" s="11"/>
       <c r="AA8" s="5"/>
@@ -5379,10 +5586,10 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG8" s="6">
         <v>70</v>
@@ -5391,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
@@ -5430,10 +5637,10 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R9" s="6">
         <v>79</v>
@@ -5442,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U9" s="11"/>
       <c r="V9" s="5"/>
@@ -5455,10 +5662,10 @@
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
       <c r="AE9" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG9" s="6">
         <v>72</v>
@@ -5467,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
@@ -5541,10 +5748,10 @@
         <v>80.5</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG10" s="6">
         <v>73</v>
@@ -5553,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ10" s="14"/>
       <c r="AK10" s="14"/>
@@ -5669,52 +5876,52 @@
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <f>O11</f>
         <v>79.571428571428569</v>
       </c>
       <c r="E15" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" t="s">
         <v>262</v>
       </c>
-      <c r="G15" t="s">
-        <v>263</v>
-      </c>
       <c r="I15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <f>T12</f>
         <v>74.25</v>
       </c>
       <c r="G16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <f>Y11</f>
         <v>72.285714285714292</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <f>AD10</f>
@@ -5726,14 +5933,14 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19">
         <f>AI13</f>
         <v>75.888888888888886</v>
       </c>
       <c r="E19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G19">
         <v>0.25</v>
@@ -5742,7 +5949,7 @@
         <v>0.25</v>
       </c>
       <c r="J19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -5753,14 +5960,14 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20">
         <f>AN11</f>
         <v>70.666666666666671</v>
       </c>
       <c r="E20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G20">
         <v>0.25</v>
@@ -5769,7 +5976,7 @@
         <v>0.25</v>
       </c>
       <c r="J20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -5780,14 +5987,14 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21">
         <f>AS9</f>
         <v>77.400000000000006</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G21">
         <v>0.25</v>
@@ -5796,7 +6003,7 @@
         <v>0.25</v>
       </c>
       <c r="J21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -5807,14 +6014,14 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22">
         <f>AX9</f>
         <v>78.400000000000006</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G22">
         <v>0.25</v>
@@ -5823,7 +6030,7 @@
         <v>0.25</v>
       </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L22">
         <v>10</v>
@@ -5834,14 +6041,14 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23">
         <f>BC10</f>
         <v>73.666666666666671</v>
       </c>
       <c r="E23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G23">
         <v>0.25</v>
@@ -5850,7 +6057,7 @@
         <v>0.25</v>
       </c>
       <c r="J23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -5861,7 +6068,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24">
         <v>0.25</v>
@@ -5870,7 +6077,7 @@
         <v>0.25</v>
       </c>
       <c r="J24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -5881,7 +6088,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G25">
         <v>0.25</v>
@@ -5892,7 +6099,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G26">
         <v>0.25</v>
@@ -5907,7 +6114,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G27">
         <v>0.25</v>
@@ -5918,7 +6125,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G28">
         <v>0.25</v>
@@ -5927,7 +6134,7 @@
         <v>0.25</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N28">
         <f>N26+H43</f>
@@ -5936,7 +6143,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G29">
         <v>0.25</v>
@@ -5945,13 +6152,13 @@
         <v>0.25</v>
       </c>
       <c r="J29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G30">
         <v>0.25</v>
@@ -5960,7 +6167,7 @@
         <v>0.25</v>
       </c>
       <c r="J30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K30" s="1">
         <v>5</v>
@@ -5968,7 +6175,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G31">
         <v>0.25</v>
@@ -5977,7 +6184,7 @@
         <v>0.25</v>
       </c>
       <c r="J31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K31" s="1">
         <v>2.5</v>
@@ -5985,7 +6192,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G32">
         <v>0.25</v>
@@ -5994,7 +6201,7 @@
         <v>0.25</v>
       </c>
       <c r="J32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -6002,7 +6209,7 @@
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G33">
         <v>0.25</v>
@@ -6011,7 +6218,7 @@
         <v>0.25</v>
       </c>
       <c r="J33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K33" s="1">
         <v>-2.5</v>
@@ -6019,7 +6226,7 @@
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G34">
         <v>0.25</v>
@@ -6028,7 +6235,7 @@
         <v>0.25</v>
       </c>
       <c r="J34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K34" s="1">
         <v>-5</v>
@@ -6036,7 +6243,7 @@
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G35">
         <v>0.25</v>
@@ -6047,7 +6254,7 @@
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G36">
         <v>0.25</v>
@@ -6058,7 +6265,7 @@
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G37">
         <v>0.25</v>
@@ -6069,7 +6276,7 @@
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G38">
         <v>0.25</v>
@@ -6080,7 +6287,7 @@
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G39">
         <v>0.25</v>
@@ -6091,7 +6298,7 @@
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G40">
         <v>0.25</v>
@@ -6102,7 +6309,7 @@
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G41">
         <v>0.25</v>
@@ -6113,7 +6320,7 @@
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G42">
         <v>0.25</v>
@@ -6139,13 +6346,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6157,98 +6369,98 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
         <v>155</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>156</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
         <v>157</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
         <v>159</v>
       </c>
-      <c r="C5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" t="s">
-        <v>100</v>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
         <v>161</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>162</v>
       </c>
-      <c r="C6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6256,68 +6468,68 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
         <v>120</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
         <v>184</v>
       </c>
-      <c r="C9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" t="s">
-        <v>183</v>
+      <c r="D9" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
         <v>207</v>
       </c>
-      <c r="B10" t="s">
-        <v>208</v>
-      </c>
       <c r="C10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" t="s">
-        <v>90</v>
+        <v>162</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" t="s">
         <v>332</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>333</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="D11" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" t="s">
         <v>338</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>339</v>
       </c>
-      <c r="C12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6326,13 +6538,41 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13">
+        <v>162</v>
+      </c>
+      <c r="D13" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/dev/Jogadores.xlsx
+++ b/dev/Jogadores.xlsx
@@ -1647,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,16 +2673,16 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E45" s="1">
@@ -2696,16 +2696,16 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E46" s="1">
@@ -2719,16 +2719,16 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="1">
@@ -2742,16 +2742,16 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="1">
@@ -2765,16 +2765,16 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E49" s="1">
@@ -2788,16 +2788,16 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="1">
@@ -2811,16 +2811,16 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E51" s="1">
@@ -2834,16 +2834,16 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="1">
@@ -2857,16 +2857,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="1">
@@ -2880,16 +2880,16 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E54" s="1">
@@ -2903,16 +2903,16 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E55" s="1">
@@ -2926,16 +2926,16 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E56" s="1">
@@ -2949,16 +2949,16 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E57" s="1">
@@ -2972,16 +2972,16 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="1">
@@ -2995,16 +2995,16 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="1">
@@ -3018,16 +3018,16 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E60" s="1">
@@ -3041,16 +3041,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E61" s="1">
@@ -3064,16 +3064,16 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E62" s="1">
@@ -3087,16 +3087,16 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E63" s="1">
@@ -3110,16 +3110,16 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E64" s="1">
@@ -3133,16 +3133,16 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E65" s="1">
@@ -3156,16 +3156,16 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E66" s="1">
@@ -3179,16 +3179,16 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E67" s="1">
@@ -3202,16 +3202,16 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="1">
@@ -3225,16 +3225,16 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E69" s="1">
@@ -3248,16 +3248,16 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E70" s="1">
@@ -3271,16 +3271,16 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E71" s="1">
@@ -3294,16 +3294,16 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="1">
@@ -3317,16 +3317,16 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E73" s="1">
@@ -3340,16 +3340,16 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E74" s="1">
@@ -3364,16 +3364,16 @@
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E75" s="1">
@@ -3388,16 +3388,16 @@
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E76" s="1">
@@ -3412,16 +3412,16 @@
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E77" s="1">
@@ -3436,16 +3436,16 @@
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E78" s="1">
@@ -3461,16 +3461,16 @@
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E79" s="1">
@@ -3486,16 +3486,16 @@
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E80" s="1">
@@ -3511,16 +3511,16 @@
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E81" s="1">
@@ -3535,16 +3535,16 @@
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E82" s="1">
@@ -3560,16 +3560,16 @@
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E83" s="1">
@@ -3585,16 +3585,16 @@
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E84" s="1">
@@ -3609,16 +3609,16 @@
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E85" s="1">
@@ -3633,16 +3633,16 @@
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E86" s="1">
@@ -3657,16 +3657,16 @@
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E87" s="1">
@@ -3681,16 +3681,16 @@
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E88" s="1">
@@ -3704,16 +3704,16 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E89" s="1">
@@ -3727,16 +3727,16 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E90" s="1">
@@ -3750,16 +3750,16 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E91" s="1">
@@ -3773,16 +3773,16 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E92" s="1">
@@ -3796,16 +3796,16 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E93" s="1">
@@ -3819,16 +3819,16 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E94" s="1">
@@ -3842,16 +3842,16 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E95" s="1">
@@ -3867,16 +3867,16 @@
       <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E96" s="1">
@@ -3892,16 +3892,16 @@
       <c r="L96" s="2"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E97" s="1">
@@ -3917,16 +3917,16 @@
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E98" s="1">
@@ -3941,16 +3941,16 @@
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E99" s="1">
@@ -3966,16 +3966,16 @@
       <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E100" s="1">
@@ -3991,16 +3991,16 @@
       <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E101" s="1">
@@ -4014,16 +4014,16 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E102" s="1">
@@ -4037,16 +4037,16 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E103" s="1">
@@ -4060,16 +4060,16 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E104" s="1">
@@ -4082,285 +4082,285 @@
         <v>369</v>
       </c>
     </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="18">
+        <v>86</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" s="18">
+        <v>87</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="18">
+        <v>84</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="18">
+        <v>78</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>344</v>
+      <c r="A111" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E111" s="18">
+        <v>81</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="1">
-        <v>86</v>
+      <c r="B112" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="18">
+        <v>85</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E113" s="1">
-        <v>87</v>
+      <c r="A113" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="18">
+        <v>73</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E114" s="1">
-        <v>84</v>
+      <c r="A114" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="18">
+        <v>80</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E115" s="1">
-        <v>78</v>
+      <c r="A115" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" s="18">
+        <v>82</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="A116" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="D116" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E116" s="1">
-        <v>81</v>
+      <c r="E116" s="18">
+        <v>79</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="18">
         <v>63</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" s="1">
-        <v>85</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E118" s="1">
-        <v>73</v>
+      <c r="A118" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="18">
+        <v>71</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="A119" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D119" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E119" s="1">
-        <v>80</v>
+      <c r="E119" s="18">
+        <v>79</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="1">
-        <v>82</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E121" s="1">
-        <v>79</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E122" s="1">
-        <v>63</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="1">
-        <v>71</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E124" s="1">
-        <v>79</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B125" s="1" t="s">
+      <c r="B120" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C120" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D120" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E120" s="18">
         <v>81</v>
       </c>
     </row>

--- a/dev/Jogadores.xlsx
+++ b/dev/Jogadores.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\LMS\dev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9600"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$D$1:$D$106</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1274,7 +1279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1703,7 +1708,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1713,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
